--- a/요구사항 명세서 양식/요구사항 명세서_대학교포탈(수강신청).xlsx
+++ b/요구사항 명세서 양식/요구사항 명세서_대학교포탈(수강신청).xlsx
@@ -2740,585 +2740,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>보여준다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의교수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의일정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> , </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>신청인원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이수구분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분반</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등록한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>새</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의에는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>다음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>내용을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력한다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의코드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의교수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>강의일정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학점</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시간표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이수구분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분반</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입수락</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -3599,439 +3020,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">입력한다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주민번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생구분</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학부</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>석사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>핸드폰번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>회원가입(학생)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4069,420 +3057,6 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학생의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정보를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">입력한다
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>필수정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아이디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비밀번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이름</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주민번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>학사졸업학교</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">석사졸업학교
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택정보</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>핸드폰번호</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주소</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>박사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>졸업학교</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4616,6 +3190,1432 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">입력한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주민번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학부</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>석사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핸드폰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>보여준다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의교수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> , </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신청인원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이수구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분반</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학생의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">입력한다
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>필수정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비밀번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주민번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학사졸업학교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">석사졸업학교
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>핸드폰번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>박사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>졸업학교</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다음</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>내용을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력한다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의교수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>강의일정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>학점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이수구분</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분반</t>
     </r>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -4871,31 +4871,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4904,49 +4883,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4964,10 +4907,67 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5234,13 +5234,13 @@
   </sheetPr>
   <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="7" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
     <col min="5" max="5" width="59.140625" customWidth="1"/>
@@ -5248,7 +5248,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -5304,23 +5304,23 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="29" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="3"/>
@@ -5329,28 +5329,28 @@
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="6"/>
@@ -5361,12 +5361,12 @@
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="14" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="6"/>
@@ -5377,12 +5377,12 @@
       <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="23"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="10" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="6"/>
@@ -5393,13 +5393,13 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>50</v>
+      <c r="D8" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="5"/>
@@ -5409,12 +5409,12 @@
       <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="6"/>
@@ -5425,17 +5425,17 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="23"/>
+      <c r="B10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="D10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="10"/>
       <c r="F10" s="5"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -5443,12 +5443,12 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="6"/>
@@ -5459,12 +5459,12 @@
       <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="6"/>
@@ -5475,13 +5475,13 @@
       <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>54</v>
+      <c r="A13" s="23"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="5"/>
@@ -5491,15 +5491,15 @@
       <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="50.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="23"/>
+      <c r="B14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="5"/>
@@ -5509,12 +5509,12 @@
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="23"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="6"/>
@@ -5525,12 +5525,12 @@
       <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="8" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="6"/>
@@ -5541,13 +5541,13 @@
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>54</v>
+      <c r="A17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="E17" s="6"/>
       <c r="F17" s="5"/>
@@ -5557,14 +5557,14 @@
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="8" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="6"/>
@@ -5575,17 +5575,17 @@
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>51</v>
+      <c r="D19" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="5"/>
@@ -5595,14 +5595,14 @@
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="15"/>
-      <c r="B20" s="27" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="8" t="s">
         <v>49</v>
       </c>
       <c r="E20" s="6"/>
@@ -5613,15 +5613,15 @@
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="28" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>55</v>
+      <c r="C21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -5631,17 +5631,17 @@
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>61</v>
+      <c r="C22" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
@@ -5651,135 +5651,136 @@
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="24" t="s">
+      <c r="A24" s="23"/>
+      <c r="B24" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="16" t="s">
+      <c r="A26" s="23"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="24" t="s">
+      <c r="A27" s="23"/>
+      <c r="B27" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="35" t="s">
+      <c r="D27" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="16" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="24" t="s">
+      <c r="A29" s="23"/>
+      <c r="B29" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="19"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="16" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="35" t="s">
+      <c r="D30" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="A5:A18"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="A22:A30"/>
@@ -5795,7 +5796,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
